--- a/ArcTarget.xlsx
+++ b/ArcTarget.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labs\KerasImagenetFruits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7557629D-8479-4A22-9E2E-F068C6E1E5AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21936" windowHeight="9192" xr2:uid="{0DE7AD47-8304-40E7-A30F-9DF5F663BCA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,15 +234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,52 +556,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA0500B-3F6E-4786-B240-907C24410560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P1" s="1"/>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="10"/>
+      <c r="T1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="10"/>
+      <c r="V1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="10"/>
+      <c r="X1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="6" t="s">
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P2" s="1"/>
       <c r="R2" s="1" t="s">
         <v>23</v>
@@ -637,7 +637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -669,11 +669,11 @@
         <v>4</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="1">
@@ -701,11 +701,11 @@
         <v>75</v>
       </c>
       <c r="X3" s="1">
-        <f>(X4-1)*$L4+1</f>
+        <f t="shared" ref="X3:X8" si="0">(X4-1)*$L4+1</f>
         <v>1</v>
       </c>
       <c r="Y3" s="5">
-        <f>(Y4-1)*$L4+$K4</f>
+        <f t="shared" ref="Y3:Y8" si="1">(Y4-1)*$L4+$K4</f>
         <v>107</v>
       </c>
       <c r="Z3" s="1">
@@ -717,7 +717,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -762,39 +762,39 @@
         <v>1</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T5" si="0">(T5-1)*$L5+1</f>
+        <f>(T5-1)*$L5+1</f>
         <v>1</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="U4:U5" si="1">(U5-1)*$L5+$K5</f>
+        <f>(U5-1)*$L5+$K5</f>
         <v>11</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V7" si="2">(V5-1)*$L5+1</f>
+        <f>(V5-1)*$L5+1</f>
         <v>1</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" ref="W4:W7" si="3">(W5-1)*$L5+$K5</f>
+        <f>(W5-1)*$L5+$K5</f>
         <v>35</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" ref="X4:X8" si="4">(X5-1)*$L5+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y8" si="5">(Y5-1)*$L5+$K5</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z9" si="6">(Z5-1)*$L5+1</f>
+        <f t="shared" ref="Z4:Z9" si="2">(Z5-1)*$L5+1</f>
         <v>1</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" ref="AA4:AA9" si="7">(AA5-1)*$L5+$K5</f>
+        <f t="shared" ref="AA4:AA9" si="3">(AA5-1)*$L5+$K5</f>
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -826,39 +826,39 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="1">
+        <f>(T6-1)*$L6+1</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <f>(U6-1)*$L6+$K6</f>
+        <v>5</v>
+      </c>
+      <c r="V5" s="1">
+        <f>(V6-1)*$L6+1</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <f>(W6-1)*$L6+$K6</f>
+        <v>17</v>
+      </c>
+      <c r="X5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U5" s="5">
+      <c r="Y5" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V5" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="X5" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,31 +904,31 @@
         <v>1</v>
       </c>
       <c r="V6" s="1">
+        <f>(V7-1)*$L7+1</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <f>(W7-1)*$L7+$K7</f>
+        <v>7</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Z6" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W6" s="5">
+      <c r="AA6" s="5">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="X6" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -968,31 +968,31 @@
       <c r="T7" s="1"/>
       <c r="U7" s="5"/>
       <c r="V7" s="1">
+        <f>(V8-1)*$L8+1</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <f>(W8-1)*$L8+$K8</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W7" s="5">
+      <c r="AA7" s="5">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="X7" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1031,23 +1031,23 @@
         <v>1</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1088,15 +1088,15 @@
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1163,7 +1163,7 @@
       <c r="Y11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1183,7 +1183,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1233,7 +1233,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>

--- a/ArcTarget.xlsx
+++ b/ArcTarget.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,7 +559,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="I4" sqref="I4:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ArcTarget.xlsx
+++ b/ArcTarget.xlsx
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ArcTarget.xlsx
+++ b/ArcTarget.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
